--- a/Part_2_tables/false_match_on_lang_grouped.xlsx
+++ b/Part_2_tables/false_match_on_lang_grouped.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/Part_2_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358D1089-26C4-1E45-9DDA-F85B0E9B2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C973DED7-7592-1F45-8C86-C29405B03E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34540" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="580" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>language</t>
   </si>
@@ -164,7 +164,13 @@
     <t>uz</t>
   </si>
   <si>
-    <t>change from lang in Crossrf to 'en' in OpenAlex</t>
+    <t>from one lang to another</t>
+  </si>
+  <si>
+    <t>en to another lang</t>
+  </si>
+  <si>
+    <t>other lang to english</t>
   </si>
 </sst>
 </file>
@@ -531,17 +537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -616,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3442</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,10 +656,6 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <f>SUM(C2:C35)</f>
-        <v>5104</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -685,6 +683,10 @@
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="E15">
+        <f>SUM(C2:C35)</f>
+        <v>5098</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -839,7 +841,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
@@ -848,7 +850,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -857,7 +859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -866,7 +868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -876,12 +878,15 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="E36">
-        <f>SUM(C36:C75)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <f>SUM(C36:C40,C42:C75)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -891,11 +896,8 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,12 +907,8 @@
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="E38">
-        <f>SUM(C38,C39,C40,C53,C56,C57,C59,C60,C62:C67,C70:C75)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -943,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>6</v>
@@ -951,8 +949,15 @@
       <c r="C42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42">
+        <f>SUM(C42:C52)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>8</v>
@@ -961,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -970,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>15</v>
@@ -978,8 +983,15 @@
       <c r="C45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45">
+        <f>SUM(C36,C38,C39,C40,C53,C56,C57,C59,C60,C62,C63,C64,C65,C66,C67,C70,C71,C72,C73,C74,C75)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>39</v>
@@ -988,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>16</v>
@@ -997,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>19</v>
